--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H2">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I2">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J2">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N2">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P2">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q2">
-        <v>604.0122638807567</v>
+        <v>3.293530542941445</v>
       </c>
       <c r="R2">
-        <v>5436.11037492681</v>
+        <v>29.641774886473</v>
       </c>
       <c r="S2">
-        <v>0.4244158665246227</v>
+        <v>0.008337103437859896</v>
       </c>
       <c r="T2">
-        <v>0.4244158665246227</v>
+        <v>0.008337103437859898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H3">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I3">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J3">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.659075</v>
       </c>
       <c r="O3">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P3">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q3">
-        <v>230.0645167223306</v>
+        <v>1.326642021197222</v>
       </c>
       <c r="R3">
-        <v>2070.580650500975</v>
+        <v>11.939778190775</v>
       </c>
       <c r="S3">
-        <v>0.1616573653553384</v>
+        <v>0.003358205309325837</v>
       </c>
       <c r="T3">
-        <v>0.1616573653553383</v>
+        <v>0.003358205309325837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>22.51188433333334</v>
+        <v>0.1298123333333333</v>
       </c>
       <c r="H4">
-        <v>67.53565300000001</v>
+        <v>0.389437</v>
       </c>
       <c r="I4">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="J4">
-        <v>0.7173237801266835</v>
+        <v>0.01442185502613333</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>24.89228</v>
       </c>
       <c r="O4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P4">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q4">
-        <v>186.7907093843156</v>
+        <v>1.077108316262222</v>
       </c>
       <c r="R4">
-        <v>1681.11638445884</v>
+        <v>9.693974846360002</v>
       </c>
       <c r="S4">
-        <v>0.1312505482467224</v>
+        <v>0.002726546278947597</v>
       </c>
       <c r="T4">
-        <v>0.1312505482467224</v>
+        <v>0.002726546278947599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>21.223478</v>
       </c>
       <c r="I5">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J5">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N5">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P5">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q5">
-        <v>189.8144228235038</v>
+        <v>179.4903232626736</v>
       </c>
       <c r="R5">
-        <v>1708.329805411534</v>
+        <v>1615.412909364062</v>
       </c>
       <c r="S5">
-        <v>0.1333751937815166</v>
+        <v>0.454354186677547</v>
       </c>
       <c r="T5">
-        <v>0.1333751937815166</v>
+        <v>0.4543541866775471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>21.223478</v>
       </c>
       <c r="I6">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J6">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>30.659075</v>
       </c>
       <c r="O6">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P6">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q6">
         <v>72.29913375142779</v>
@@ -818,10 +818,10 @@
         <v>650.69220376285</v>
       </c>
       <c r="S6">
-        <v>0.05080178224021888</v>
+        <v>0.1830149587788528</v>
       </c>
       <c r="T6">
-        <v>0.05080178224021887</v>
+        <v>0.1830149587788528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>21.223478</v>
       </c>
       <c r="I7">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098795</v>
       </c>
       <c r="J7">
-        <v>0.2254232363222356</v>
+        <v>0.7859600471098797</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>24.89228</v>
       </c>
       <c r="O7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P7">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q7">
         <v>58.70008410553778</v>
@@ -880,10 +880,10 @@
         <v>528.30075694984</v>
       </c>
       <c r="S7">
-        <v>0.04124626030050011</v>
+        <v>0.1485909016534798</v>
       </c>
       <c r="T7">
-        <v>0.0412462603005001</v>
+        <v>0.1485909016534798</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.390338</v>
       </c>
       <c r="I8">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J8">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.83081766666666</v>
+        <v>25.37147633333333</v>
       </c>
       <c r="N8">
-        <v>80.492453</v>
+        <v>76.114429</v>
       </c>
       <c r="O8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="P8">
-        <v>0.5916656861001715</v>
+        <v>0.5780881462719274</v>
       </c>
       <c r="Q8">
-        <v>48.20905867990155</v>
+        <v>45.58694433188911</v>
       </c>
       <c r="R8">
-        <v>433.881528119114</v>
+        <v>410.282498987002</v>
       </c>
       <c r="S8">
-        <v>0.0338746257940321</v>
+        <v>0.1153968561565204</v>
       </c>
       <c r="T8">
-        <v>0.0338746257940321</v>
+        <v>0.1153968561565204</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.390338</v>
       </c>
       <c r="I9">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J9">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>30.659075</v>
       </c>
       <c r="O9">
-        <v>0.2253617819930475</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="P9">
-        <v>0.2253617819930474</v>
+        <v>0.2328552951919536</v>
       </c>
       <c r="Q9">
         <v>18.36253077970556</v>
@@ -1004,10 +1004,10 @@
         <v>165.26277701735</v>
       </c>
       <c r="S9">
-        <v>0.01290263439749022</v>
+        <v>0.04648213110377496</v>
       </c>
       <c r="T9">
-        <v>0.01290263439749022</v>
+        <v>0.04648213110377497</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.390338</v>
       </c>
       <c r="I10">
-        <v>0.05725298355108088</v>
+        <v>0.1996180978639869</v>
       </c>
       <c r="J10">
-        <v>0.05725298355108088</v>
+        <v>0.199618097863987</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>24.89228</v>
       </c>
       <c r="O10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="P10">
-        <v>0.1829725319067811</v>
+        <v>0.189056558536119</v>
       </c>
       <c r="Q10">
         <v>14.90864475451555</v>
@@ -1066,10 +1066,10 @@
         <v>134.17780279064</v>
       </c>
       <c r="S10">
-        <v>0.01047572335955856</v>
+        <v>0.03773911060369157</v>
       </c>
       <c r="T10">
-        <v>0.01047572335955856</v>
+        <v>0.03773911060369158</v>
       </c>
     </row>
   </sheetData>
